--- a/CSVUserData.xlsx
+++ b/CSVUserData.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9675"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="UserData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
